--- a/Web2Case.xlsx
+++ b/Web2Case.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Salesforce_Web2Case" sheetId="2" r:id="rId2"/>
+    <x:sheet name="GA_Web2Case" sheetId="2" r:id="rId2"/>
     <x:sheet name="Salesforce_ViewCase" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -51,6 +51,63 @@
   </x:si>
   <x:si>
     <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>open url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url should be launched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Contact Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact Name Should be Enter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Email ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email Id Should be Enter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number Should be Entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject Should be Entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click On Submit Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Submit Button Should Be Clicked</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3.TestCase_1</x:t>
@@ -164,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0">
-  <x:autoFilter ref="A1:K2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0">
+  <x:autoFilter ref="A1:K7"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -491,7 +548,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K2"/>
+  <x:dimension ref="A1:K7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -503,8 +560,8 @@
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="23.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -546,17 +603,122 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="C2" s="0" t="s"/>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -633,26 +795,26 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
@@ -664,13 +826,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>

--- a/Web2Case.xlsx
+++ b/Web2Case.xlsx
@@ -6,8 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="GA_Web2Case" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Salesforce_ViewCase" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Test-Cases" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -65,6 +64,9 @@
     <x:t>Url should be launched</x:t>
   </x:si>
   <x:si>
+    <x:t>Approved</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
@@ -108,36 +110,6 @@
   </x:si>
   <x:si>
     <x:t>Submit Button Should Be Clicked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Case name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Case Details</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -223,26 +195,6 @@
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0">
   <x:autoFilter ref="A1:K7"/>
-  <x:tableColumns count="11">
-    <x:tableColumn id="1" name="TestScenarioID"/>
-    <x:tableColumn id="2" name="TestCaseID"/>
-    <x:tableColumn id="3" name="Description"/>
-    <x:tableColumn id="4" name="Precondition"/>
-    <x:tableColumn id="5" name="TestData"/>
-    <x:tableColumn id="6" name="Steps"/>
-    <x:tableColumn id="7" name="UserAction"/>
-    <x:tableColumn id="8" name="ExpectedResult"/>
-    <x:tableColumn id="9" name="Approved/Rejected"/>
-    <x:tableColumn id="10" name="ReasonToReject"/>
-    <x:tableColumn id="11" name="IsModified/Added"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:K3" totalsRowShown="0">
-  <x:autoFilter ref="A1:K3"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -621,7 +573,9 @@
       <x:c r="H2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s"/>
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
     </x:row>
@@ -632,13 +586,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -651,13 +605,13 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -670,13 +624,13 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -689,13 +643,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -708,13 +662,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -726,125 +680,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId6"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:K3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="37.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="41.980625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:11">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:11">
-      <x:c r="A2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s"/>
-      <x:c r="K2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:11">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s"/>
-      <x:c r="J3" s="0" t="s"/>
-      <x:c r="K3" s="0" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId7"/>
+    <x:tablePart r:id="rId5"/>
   </x:tableParts>
 </x:worksheet>
 </file>